--- a/info/PokeDex.xlsx
+++ b/info/PokeDex.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1675369094" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1675369094" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1675369094" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1675369094"/>
+      <pm:revision xmlns:pm="smNativeData" day="1730945708" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1730945708" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1730945708" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1730945708"/>
     </ext>
   </extLst>
 </workbook>
@@ -28,7 +28,7 @@
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="Q102" authorId="0">
+    <comment ref="Q110" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="467">
   <si>
     <t>Water</t>
   </si>
@@ -374,6 +374,9 @@
     <t>Golett</t>
   </si>
   <si>
+    <t>Cloyster</t>
+  </si>
+  <si>
     <t>order most to least popular</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
     <t>Golurk</t>
   </si>
   <si>
+    <t>Icy_Gigalith</t>
+  </si>
+  <si>
     <t>Magnemite</t>
   </si>
   <si>
@@ -467,6 +473,9 @@
     <t>Sableye</t>
   </si>
   <si>
+    <t>Swinub</t>
+  </si>
+  <si>
     <t>Magneton</t>
   </si>
   <si>
@@ -503,6 +512,9 @@
     <t>M_Sableye</t>
   </si>
   <si>
+    <t>Piloswine</t>
+  </si>
+  <si>
     <t>Magnezone</t>
   </si>
   <si>
@@ -536,6 +548,9 @@
     <t>Frillish_M</t>
   </si>
   <si>
+    <t>Mamoswine</t>
+  </si>
+  <si>
     <t>Staryu</t>
   </si>
   <si>
@@ -554,6 +569,9 @@
     <t>Wobbuffet</t>
   </si>
   <si>
+    <t>Magby</t>
+  </si>
+  <si>
     <t>Timburr</t>
   </si>
   <si>
@@ -566,15 +584,15 @@
     <t>Jellicent_M</t>
   </si>
   <si>
+    <t>Vanillite</t>
+  </si>
+  <si>
     <t>Starmie</t>
   </si>
   <si>
     <t>beedrill</t>
   </si>
   <si>
-    <t>Cloyster</t>
-  </si>
-  <si>
     <t>Fearow</t>
   </si>
   <si>
@@ -584,6 +602,9 @@
     <t>Chingling</t>
   </si>
   <si>
+    <t>Magmar</t>
+  </si>
+  <si>
     <t>Nidoran_m</t>
   </si>
   <si>
@@ -608,6 +629,9 @@
     <t>Frillish_F</t>
   </si>
   <si>
+    <t>Vanillish</t>
+  </si>
+  <si>
     <t>Lunatone</t>
   </si>
   <si>
@@ -623,6 +647,9 @@
     <t>Chimecho</t>
   </si>
   <si>
+    <t>Magmortar</t>
+  </si>
+  <si>
     <t>Nidoran_f</t>
   </si>
   <si>
@@ -647,6 +674,9 @@
     <t>Jellicent_F</t>
   </si>
   <si>
+    <t>Vanilluxe</t>
+  </si>
+  <si>
     <t>Solrock</t>
   </si>
   <si>
@@ -680,6 +710,9 @@
     <t>Gastly</t>
   </si>
   <si>
+    <t>Cubchoo</t>
+  </si>
+  <si>
     <t>Baltoy</t>
   </si>
   <si>
@@ -716,589 +749,673 @@
     <t>Haunter</t>
   </si>
   <si>
+    <t>Beartic</t>
+  </si>
+  <si>
     <t>Claydol</t>
   </si>
   <si>
     <t>magnemite</t>
   </si>
   <si>
+    <t>S_Wobbuffet</t>
+  </si>
+  <si>
+    <t>Karrablast</t>
+  </si>
+  <si>
+    <t>Gligar</t>
+  </si>
+  <si>
+    <t>Roggenrola</t>
+  </si>
+  <si>
+    <t>Croagunk</t>
+  </si>
+  <si>
+    <t>Sneasel</t>
+  </si>
+  <si>
+    <t>Ferrothorn</t>
+  </si>
+  <si>
+    <t>Chinchou</t>
+  </si>
+  <si>
+    <t>Togetic</t>
+  </si>
+  <si>
+    <t>Gengar</t>
+  </si>
+  <si>
+    <t>Alolan_Sandshrew</t>
+  </si>
+  <si>
+    <t>Beldum</t>
+  </si>
+  <si>
+    <t>Buneary</t>
+  </si>
+  <si>
+    <t>Abra</t>
+  </si>
+  <si>
+    <t>Gliscor</t>
+  </si>
+  <si>
+    <t>Boldore</t>
+  </si>
+  <si>
+    <t>Toxicroak</t>
+  </si>
+  <si>
+    <t>Weavile</t>
+  </si>
+  <si>
+    <t>Klink</t>
+  </si>
+  <si>
+    <t>Lanturn</t>
+  </si>
+  <si>
+    <t>Togekiss</t>
+  </si>
+  <si>
+    <t>M_Gengar</t>
+  </si>
+  <si>
+    <t>Alolan_Sandslash</t>
+  </si>
+  <si>
+    <t>Metang</t>
+  </si>
+  <si>
+    <t>Lopunny</t>
+  </si>
+  <si>
+    <t>Kadabra</t>
+  </si>
+  <si>
+    <t>Barboach</t>
+  </si>
+  <si>
+    <t>Gigalith</t>
+  </si>
+  <si>
+    <t>Gallade</t>
+  </si>
+  <si>
+    <t>Pawniard</t>
+  </si>
+  <si>
+    <t>Klang</t>
+  </si>
+  <si>
+    <t>Dedenne</t>
+  </si>
+  <si>
+    <t>Cottonee</t>
+  </si>
+  <si>
+    <t>Shuppet</t>
+  </si>
+  <si>
+    <t>Cryogonal</t>
+  </si>
+  <si>
+    <t>Metagross</t>
+  </si>
+  <si>
+    <t>Mantyke</t>
+  </si>
+  <si>
+    <t>M_Lopunny</t>
+  </si>
+  <si>
+    <t>Alakazam</t>
+  </si>
+  <si>
+    <t>Whiscash</t>
+  </si>
+  <si>
+    <t>M_Gallade</t>
+  </si>
+  <si>
+    <t>Bisharp</t>
+  </si>
+  <si>
+    <t>Klinklang</t>
+  </si>
+  <si>
+    <t>Pichu</t>
+  </si>
+  <si>
+    <t>Whimsicott</t>
+  </si>
+  <si>
+    <t>Banette</t>
+  </si>
+  <si>
+    <t>Snover</t>
+  </si>
+  <si>
+    <t>Bonzor</t>
+  </si>
+  <si>
+    <t>Mantine</t>
+  </si>
+  <si>
+    <t>Maractus</t>
+  </si>
+  <si>
+    <t>M_Alakazam</t>
+  </si>
+  <si>
+    <t>Pinsir</t>
+  </si>
+  <si>
+    <t>Hawlucha</t>
+  </si>
+  <si>
+    <t>Mawile</t>
+  </si>
+  <si>
+    <t>Pikachu</t>
+  </si>
+  <si>
+    <t>Sylveon</t>
+  </si>
+  <si>
+    <t>M_Banette</t>
+  </si>
+  <si>
+    <t>Abomasnow</t>
+  </si>
+  <si>
+    <t>Bronzong</t>
+  </si>
+  <si>
+    <t>Clamperl</t>
+  </si>
+  <si>
+    <t>Budew</t>
+  </si>
+  <si>
+    <t>Solosis</t>
+  </si>
+  <si>
+    <t>M_Pinsir</t>
+  </si>
+  <si>
+    <t>Riolu</t>
+  </si>
+  <si>
+    <t>M_Mawile</t>
+  </si>
+  <si>
+    <t>Raichu</t>
+  </si>
+  <si>
+    <t>Duskull</t>
+  </si>
+  <si>
+    <t>M_Abomasnow</t>
+  </si>
+  <si>
+    <t>ariana</t>
+  </si>
+  <si>
+    <t>proton</t>
+  </si>
+  <si>
+    <t>Huntail</t>
+  </si>
+  <si>
+    <t>Roselia</t>
+  </si>
+  <si>
+    <t>Duosion</t>
+  </si>
+  <si>
+    <t>Spinarak</t>
+  </si>
+  <si>
+    <t>Lucario</t>
+  </si>
+  <si>
+    <t>Elekid</t>
+  </si>
+  <si>
+    <t>Dusclops</t>
+  </si>
+  <si>
+    <t>Alolan_Vulpix</t>
+  </si>
+  <si>
+    <t>weezing*</t>
+  </si>
+  <si>
+    <t>Gorebyss</t>
+  </si>
+  <si>
+    <t>Pikipek</t>
+  </si>
+  <si>
+    <t>Roserade</t>
+  </si>
+  <si>
+    <t>Reuniclus</t>
+  </si>
+  <si>
+    <t>Ariados</t>
+  </si>
+  <si>
+    <t>M_Lucario</t>
+  </si>
+  <si>
+    <t>Electabuzz</t>
+  </si>
+  <si>
+    <t>Ralts</t>
+  </si>
+  <si>
+    <t>Dusknoir</t>
+  </si>
+  <si>
+    <t>Alolan_Ninetales</t>
+  </si>
+  <si>
+    <t>arbok*</t>
+  </si>
+  <si>
+    <t>Buizel</t>
+  </si>
+  <si>
+    <t>Munchlax</t>
+  </si>
+  <si>
+    <t>Trumbeak</t>
+  </si>
+  <si>
+    <t>Elgyem</t>
+  </si>
+  <si>
+    <t>Shelmet</t>
+  </si>
+  <si>
+    <t>Electivire</t>
+  </si>
+  <si>
+    <t>Kirlia</t>
+  </si>
+  <si>
+    <t>vileplume</t>
+  </si>
+  <si>
+    <t>Floatzel</t>
+  </si>
+  <si>
+    <t>Snorlax</t>
+  </si>
+  <si>
+    <t>Toucannon</t>
+  </si>
+  <si>
+    <t>Beheeyem</t>
+  </si>
+  <si>
+    <t>Accelgor</t>
+  </si>
+  <si>
+    <t>Gardevoir</t>
+  </si>
+  <si>
+    <t>honchkrow</t>
+  </si>
+  <si>
+    <t>Happiny</t>
+  </si>
+  <si>
+    <t>Rotom_f</t>
+  </si>
+  <si>
+    <t>Espeon</t>
+  </si>
+  <si>
+    <t>Dewpider</t>
+  </si>
+  <si>
+    <t>M_Gardevoir</t>
+  </si>
+  <si>
+    <t>Pumpkaboo</t>
+  </si>
+  <si>
+    <t>Snorunt</t>
+  </si>
+  <si>
+    <t>m_sableye</t>
+  </si>
+  <si>
+    <t>Chansey</t>
+  </si>
+  <si>
+    <t>Araquanid</t>
+  </si>
+  <si>
+    <t>Cutiefly</t>
+  </si>
+  <si>
+    <t>Gourgeist</t>
+  </si>
+  <si>
+    <t>Glalie</t>
+  </si>
+  <si>
+    <t>ariados</t>
+  </si>
+  <si>
+    <t>Mareanie</t>
+  </si>
+  <si>
+    <t>Blissey</t>
+  </si>
+  <si>
+    <t>Yanma</t>
+  </si>
+  <si>
+    <t>Ribombee</t>
+  </si>
+  <si>
+    <t>Froslass</t>
+  </si>
+  <si>
+    <t>Minior</t>
+  </si>
+  <si>
+    <t>Toxapex</t>
+  </si>
+  <si>
+    <t>Audino</t>
+  </si>
+  <si>
+    <t>Yanmega</t>
+  </si>
+  <si>
+    <t>Morelull</t>
+  </si>
+  <si>
+    <t>Dhelmise</t>
+  </si>
+  <si>
+    <t>Rotom_m</t>
+  </si>
+  <si>
+    <t>Surskit</t>
+  </si>
+  <si>
+    <t>Shiinotic</t>
+  </si>
+  <si>
+    <t>Kangaskhan</t>
+  </si>
+  <si>
+    <t>Masquerain</t>
+  </si>
+  <si>
+    <t>Leafeon</t>
+  </si>
+  <si>
+    <t>M_Kangaskhan</t>
+  </si>
+  <si>
+    <t>Gyarados</t>
+  </si>
+  <si>
+    <t>Wimpod</t>
+  </si>
+  <si>
+    <t>Tangela</t>
+  </si>
+  <si>
+    <t>Golisopod</t>
+  </si>
+  <si>
+    <t>Rotom_w</t>
+  </si>
+  <si>
+    <t>Tangrowth</t>
+  </si>
+  <si>
+    <t>Vaporeon</t>
+  </si>
+  <si>
+    <t>Fomantis</t>
+  </si>
+  <si>
+    <t>Ekans</t>
+  </si>
+  <si>
+    <t>Tentacool</t>
+  </si>
+  <si>
+    <t>Eevee</t>
+  </si>
+  <si>
+    <t>Lurantis</t>
+  </si>
+  <si>
+    <t>Arbok</t>
+  </si>
+  <si>
+    <t>Tentacruel</t>
+  </si>
+  <si>
+    <t>Feebas</t>
+  </si>
+  <si>
+    <t>Milotic</t>
+  </si>
+  <si>
+    <t>Tympole</t>
+  </si>
+  <si>
+    <t>Squirtle</t>
+  </si>
+  <si>
+    <t>Wartortle</t>
+  </si>
+  <si>
+    <t>Blastoise</t>
+  </si>
+  <si>
+    <t>M_Blastoise</t>
+  </si>
+  <si>
+    <t>Clauncher</t>
+  </si>
+  <si>
+    <t>Clawitzer</t>
+  </si>
+  <si>
+    <t>Wooper</t>
+  </si>
+  <si>
+    <t>Quagsire</t>
+  </si>
+  <si>
+    <t>Sentret</t>
+  </si>
+  <si>
+    <t>Fletchling</t>
+  </si>
+  <si>
+    <t>Bounsweet</t>
+  </si>
+  <si>
+    <t>METANG</t>
+  </si>
+  <si>
+    <t>VENIPEDE</t>
+  </si>
+  <si>
+    <t>Litwick</t>
+  </si>
+  <si>
+    <t>Bulbasaur</t>
+  </si>
+  <si>
+    <t>TRAPINCH</t>
+  </si>
+  <si>
+    <t>Poliwrath</t>
+  </si>
+  <si>
+    <t>Shinx</t>
+  </si>
+  <si>
+    <t>M_Altaria</t>
+  </si>
+  <si>
+    <t>Furret</t>
+  </si>
+  <si>
+    <t>Fletchinder</t>
+  </si>
+  <si>
+    <t>Steenee</t>
+  </si>
+  <si>
+    <t>Sewaddle</t>
+  </si>
+  <si>
+    <t>Lampent</t>
+  </si>
+  <si>
+    <t>Ivysaur</t>
+  </si>
+  <si>
+    <t>Sandile</t>
+  </si>
+  <si>
+    <t>Chesnaught</t>
+  </si>
+  <si>
+    <t>Luxio</t>
+  </si>
+  <si>
+    <t>Altaria</t>
+  </si>
+  <si>
+    <t>Swablu</t>
+  </si>
+  <si>
+    <t>Talonflame</t>
+  </si>
+  <si>
+    <t>Tsareena</t>
+  </si>
+  <si>
+    <t>Swadloon</t>
+  </si>
+  <si>
+    <t>Chandelure</t>
+  </si>
+  <si>
+    <t>Venusaur</t>
+  </si>
+  <si>
+    <t>Krokorok</t>
+  </si>
+  <si>
+    <t>Luxray</t>
+  </si>
+  <si>
+    <t>Levanny</t>
+  </si>
+  <si>
+    <t>M_Venusaur</t>
+  </si>
+  <si>
+    <t>Krookodile</t>
+  </si>
+  <si>
+    <t>Magikarp</t>
+  </si>
+  <si>
+    <t>Remoraid</t>
+  </si>
+  <si>
+    <t>Chespin</t>
+  </si>
+  <si>
+    <t>Octillery</t>
+  </si>
+  <si>
+    <t>Quilladin</t>
+  </si>
+  <si>
+    <t>Wailmer</t>
+  </si>
+  <si>
+    <t>Wailord</t>
+  </si>
+  <si>
+    <t>Horsea</t>
+  </si>
+  <si>
+    <t>Seadra</t>
+  </si>
+  <si>
+    <t>Baby Pokemon (1-10)</t>
+  </si>
+  <si>
+    <t>Baby Pokemon after</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Poliwag</t>
+  </si>
+  <si>
+    <t>Hidden abilities start with Snover</t>
+  </si>
+  <si>
+    <t>Poliwhirl</t>
+  </si>
+  <si>
+    <t>Rotom_rotF</t>
+  </si>
+  <si>
+    <t>Rotom_rotR</t>
+  </si>
+  <si>
+    <t>Rotom_rotH</t>
+  </si>
+  <si>
+    <t>Rotom_rotM</t>
+  </si>
+  <si>
+    <t>Rotom_rotW</t>
+  </si>
+  <si>
+    <t>Absol</t>
+  </si>
+  <si>
+    <t>Mega_Absol</t>
+  </si>
+  <si>
+    <t>Nidoran_M</t>
+  </si>
+  <si>
+    <t>Crabrawler</t>
+  </si>
+  <si>
     <t>Spook_Wobbuffet</t>
   </si>
   <si>
-    <t>Karrablast</t>
-  </si>
-  <si>
-    <t>Gligar</t>
-  </si>
-  <si>
-    <t>Roggenrola</t>
-  </si>
-  <si>
-    <t>Croagunk</t>
-  </si>
-  <si>
-    <t>Ferrothorn</t>
-  </si>
-  <si>
-    <t>Chinchou</t>
-  </si>
-  <si>
-    <t>Togetic</t>
-  </si>
-  <si>
-    <t>Gengar</t>
-  </si>
-  <si>
-    <t>Beldum</t>
-  </si>
-  <si>
-    <t>Buneary</t>
-  </si>
-  <si>
-    <t>Abra</t>
-  </si>
-  <si>
-    <t>Gliscor</t>
-  </si>
-  <si>
-    <t>Boldore</t>
-  </si>
-  <si>
-    <t>Toxicroak</t>
-  </si>
-  <si>
-    <t>Klink</t>
-  </si>
-  <si>
-    <t>Lanturn</t>
-  </si>
-  <si>
-    <t>Togekiss</t>
-  </si>
-  <si>
-    <t>M_Gengar</t>
-  </si>
-  <si>
-    <t>Metang</t>
-  </si>
-  <si>
-    <t>Lopunny</t>
-  </si>
-  <si>
-    <t>Kadabra</t>
-  </si>
-  <si>
-    <t>Barboach</t>
-  </si>
-  <si>
-    <t>Gigalith</t>
-  </si>
-  <si>
-    <t>Gallade</t>
-  </si>
-  <si>
-    <t>Klang</t>
-  </si>
-  <si>
-    <t>Dedenne</t>
-  </si>
-  <si>
-    <t>Cottonee</t>
-  </si>
-  <si>
-    <t>Shuppet</t>
-  </si>
-  <si>
-    <t>Metagross</t>
-  </si>
-  <si>
-    <t>Mantyke</t>
-  </si>
-  <si>
-    <t>M_Lopunny</t>
-  </si>
-  <si>
-    <t>Alakazam</t>
-  </si>
-  <si>
-    <t>Whiscash</t>
-  </si>
-  <si>
-    <t>M_Gallade</t>
-  </si>
-  <si>
-    <t>Klinklang</t>
-  </si>
-  <si>
-    <t>Whimsicott</t>
-  </si>
-  <si>
-    <t>Banette</t>
-  </si>
-  <si>
-    <t>Bonzor</t>
-  </si>
-  <si>
-    <t>Mantine</t>
-  </si>
-  <si>
-    <t>Maractus</t>
-  </si>
-  <si>
-    <t>M_Alakazam</t>
-  </si>
-  <si>
-    <t>Pinsir</t>
-  </si>
-  <si>
-    <t>Hawlucha</t>
-  </si>
-  <si>
-    <t>Mawile</t>
-  </si>
-  <si>
-    <t>Sylveon</t>
-  </si>
-  <si>
-    <t>M_Banette</t>
-  </si>
-  <si>
-    <t>Bronzong</t>
-  </si>
-  <si>
-    <t>Clamperl</t>
-  </si>
-  <si>
-    <t>Budew</t>
-  </si>
-  <si>
-    <t>Solosis</t>
-  </si>
-  <si>
-    <t>M_Pinsir</t>
-  </si>
-  <si>
-    <t>M_Mawile</t>
-  </si>
-  <si>
-    <t>Duskull</t>
-  </si>
-  <si>
-    <t>ariana</t>
-  </si>
-  <si>
-    <t>proton</t>
-  </si>
-  <si>
-    <t>Huntail</t>
-  </si>
-  <si>
-    <t>Roselia</t>
-  </si>
-  <si>
-    <t>Duosion</t>
-  </si>
-  <si>
-    <t>Spinarak</t>
-  </si>
-  <si>
-    <t>Dusclops</t>
-  </si>
-  <si>
-    <t>weezing*</t>
-  </si>
-  <si>
-    <t>Gorebyss</t>
-  </si>
-  <si>
-    <t>Pikipek</t>
-  </si>
-  <si>
-    <t>Roserade</t>
-  </si>
-  <si>
-    <t>Reuniclus</t>
-  </si>
-  <si>
-    <t>Ariados</t>
-  </si>
-  <si>
-    <t>Ralts</t>
-  </si>
-  <si>
-    <t>Dusknoir</t>
-  </si>
-  <si>
-    <t>arbok*</t>
-  </si>
-  <si>
-    <t>Buizel</t>
-  </si>
-  <si>
-    <t>Munchlax</t>
-  </si>
-  <si>
-    <t>Trumbeak</t>
-  </si>
-  <si>
-    <t>Elgyem</t>
-  </si>
-  <si>
-    <t>Shelmet</t>
-  </si>
-  <si>
-    <t>Kirlia</t>
-  </si>
-  <si>
-    <t>vileplume</t>
-  </si>
-  <si>
-    <t>Floatzel</t>
-  </si>
-  <si>
-    <t>Snorlax</t>
-  </si>
-  <si>
-    <t>Toucannon</t>
-  </si>
-  <si>
-    <t>Beheeyem</t>
-  </si>
-  <si>
-    <t>Accelgor</t>
-  </si>
-  <si>
-    <t>Gardevoir</t>
-  </si>
-  <si>
-    <t>honchkrow</t>
-  </si>
-  <si>
-    <t>Happiny</t>
-  </si>
-  <si>
-    <t>Rotom_f</t>
-  </si>
-  <si>
-    <t>Espeon</t>
-  </si>
-  <si>
-    <t>Dewpider</t>
-  </si>
-  <si>
-    <t>M_Gardevoir</t>
-  </si>
-  <si>
-    <t>Pumpkaboo</t>
-  </si>
-  <si>
-    <t>m_sableye</t>
-  </si>
-  <si>
-    <t>Chansey</t>
-  </si>
-  <si>
-    <t>Araquanid</t>
-  </si>
-  <si>
-    <t>Cutiefly</t>
-  </si>
-  <si>
-    <t>Gourgeist</t>
-  </si>
-  <si>
-    <t>ariados</t>
-  </si>
-  <si>
-    <t>Mareanie</t>
-  </si>
-  <si>
-    <t>Blissey</t>
-  </si>
-  <si>
-    <t>Yanma</t>
-  </si>
-  <si>
-    <t>Ribombee</t>
-  </si>
-  <si>
-    <t>Minior</t>
-  </si>
-  <si>
-    <t>Toxapex</t>
-  </si>
-  <si>
-    <t>Audino</t>
-  </si>
-  <si>
-    <t>Yanmega</t>
-  </si>
-  <si>
-    <t>Morelull</t>
-  </si>
-  <si>
-    <t>Dhelmise</t>
-  </si>
-  <si>
-    <t>Rotom_m</t>
-  </si>
-  <si>
-    <t>Surskit</t>
-  </si>
-  <si>
-    <t>Shiinotic</t>
-  </si>
-  <si>
-    <t>Kangaskhan</t>
-  </si>
-  <si>
-    <t>Masquerain</t>
-  </si>
-  <si>
-    <t>Leafeon</t>
-  </si>
-  <si>
-    <t>M_Kangaskhan</t>
-  </si>
-  <si>
-    <t>Gyarados</t>
-  </si>
-  <si>
-    <t>Wimpod</t>
-  </si>
-  <si>
-    <t>Tangela</t>
-  </si>
-  <si>
-    <t>Golisopod</t>
-  </si>
-  <si>
-    <t>Rotom_w</t>
-  </si>
-  <si>
-    <t>Tangrowth</t>
-  </si>
-  <si>
-    <t>Vaporeon</t>
-  </si>
-  <si>
-    <t>Fomantis</t>
-  </si>
-  <si>
-    <t>Ekans</t>
-  </si>
-  <si>
-    <t>Tentacool</t>
-  </si>
-  <si>
-    <t>Eevee</t>
-  </si>
-  <si>
-    <t>Lurantis</t>
-  </si>
-  <si>
-    <t>Arbok</t>
-  </si>
-  <si>
-    <t>Tentacruel</t>
-  </si>
-  <si>
-    <t>Feebas</t>
-  </si>
-  <si>
-    <t>Milotic</t>
-  </si>
-  <si>
-    <t>Tympole</t>
-  </si>
-  <si>
-    <t>Squirtle</t>
-  </si>
-  <si>
-    <t>Wartortle</t>
-  </si>
-  <si>
-    <t>Blastoise</t>
-  </si>
-  <si>
-    <t>M_Blastoise</t>
-  </si>
-  <si>
-    <t>Clauncher</t>
-  </si>
-  <si>
-    <t>Clawitzer</t>
-  </si>
-  <si>
-    <t>Wooper</t>
-  </si>
-  <si>
-    <t>Quagsire</t>
-  </si>
-  <si>
-    <t>Sentret</t>
-  </si>
-  <si>
-    <t>Fletchling</t>
-  </si>
-  <si>
-    <t>Bounsweet</t>
-  </si>
-  <si>
-    <t>METANG</t>
-  </si>
-  <si>
-    <t>VENIPEDE</t>
-  </si>
-  <si>
-    <t>Litwick</t>
-  </si>
-  <si>
-    <t>Bulbasaur</t>
-  </si>
-  <si>
-    <t>TRAPINCH</t>
-  </si>
-  <si>
-    <t>Poliwrath</t>
-  </si>
-  <si>
-    <t>Shinx</t>
-  </si>
-  <si>
-    <t>Furret</t>
-  </si>
-  <si>
-    <t>Fletchinder</t>
-  </si>
-  <si>
-    <t>Steenee</t>
-  </si>
-  <si>
-    <t>Sewaddle</t>
-  </si>
-  <si>
-    <t>Lampent</t>
-  </si>
-  <si>
-    <t>Ivysaur</t>
-  </si>
-  <si>
-    <t>Sandile</t>
-  </si>
-  <si>
-    <t>Chesnaught</t>
-  </si>
-  <si>
-    <t>Luxio</t>
-  </si>
-  <si>
-    <t>Talonflame</t>
-  </si>
-  <si>
-    <t>Tsareena</t>
-  </si>
-  <si>
-    <t>Swadloon</t>
-  </si>
-  <si>
-    <t>Chandelure</t>
-  </si>
-  <si>
-    <t>Venusaur</t>
-  </si>
-  <si>
-    <t>Krokorok</t>
-  </si>
-  <si>
-    <t>Luxray</t>
-  </si>
-  <si>
-    <t>Levanny</t>
-  </si>
-  <si>
-    <t>M_Venusaur</t>
-  </si>
-  <si>
-    <t>Krookodile</t>
-  </si>
-  <si>
-    <t>Elekid</t>
-  </si>
-  <si>
-    <t>Electabuzz</t>
-  </si>
-  <si>
-    <t>Electivire</t>
-  </si>
-  <si>
-    <t>Magikarp</t>
-  </si>
-  <si>
-    <t>Remoraid</t>
-  </si>
-  <si>
-    <t>Chespin</t>
-  </si>
-  <si>
-    <t>Octillery</t>
-  </si>
-  <si>
-    <t>Quilladin</t>
-  </si>
-  <si>
-    <t>Wailmer</t>
-  </si>
-  <si>
-    <t>Wailord</t>
-  </si>
-  <si>
-    <t>Horsea</t>
-  </si>
-  <si>
-    <t>Seadra</t>
-  </si>
-  <si>
-    <t>Baby Pokemon (1-10)</t>
-  </si>
-  <si>
-    <t>Poliwag</t>
-  </si>
-  <si>
-    <t>Baby Pokemon after</t>
-  </si>
-  <si>
-    <t>Poliwhirl</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>Rotom_rotF</t>
-  </si>
-  <si>
-    <t>Rotom_rotR</t>
-  </si>
-  <si>
-    <t>Rotom_rotH</t>
-  </si>
-  <si>
-    <t>Rotom_rotM</t>
-  </si>
-  <si>
-    <t>Rotom_rotW</t>
-  </si>
-  <si>
-    <t>Pichu</t>
-  </si>
-  <si>
-    <t>Nidoran_M</t>
-  </si>
-  <si>
-    <t>Pikachu</t>
-  </si>
-  <si>
-    <t>Raichu</t>
+    <t>Crabominable</t>
   </si>
   <si>
     <t>Nidoran_F</t>
@@ -1307,43 +1424,19 @@
     <t>Pine_Oddish</t>
   </si>
   <si>
-    <t>Absol</t>
-  </si>
-  <si>
-    <t>Mega_Absol</t>
-  </si>
-  <si>
-    <t>Magby</t>
-  </si>
-  <si>
-    <t>Magmar</t>
-  </si>
-  <si>
-    <t>Magmortar</t>
-  </si>
-  <si>
     <t>Alolan_Marowak</t>
   </si>
   <si>
-    <t>Riolu</t>
-  </si>
-  <si>
-    <t>Lucario</t>
-  </si>
-  <si>
-    <t>M_Lucario</t>
-  </si>
-  <si>
     <t>Carvahna</t>
   </si>
   <si>
+    <t>Lapras</t>
+  </si>
+  <si>
     <t>Sharpedo</t>
   </si>
   <si>
     <t>M_Sharpedo</t>
-  </si>
-  <si>
-    <t>Lapras</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1461,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1675369094" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1730945708" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1383,7 +1476,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1675369094" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1730945708" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1398,7 +1491,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1675369094" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1730945708" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1413,7 +1506,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1675369094" fgClr="806000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1730945708" fgClr="806000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1428,7 +1521,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1675369094" fgClr="7E7E7E" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1730945708" fgClr="7E7E7E" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1443,7 +1536,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1675369094" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1730945708" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1458,7 +1551,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1675369094" fgClr="0B0B0B" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1730945708" fgClr="0B0B0B" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1473,7 +1566,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1675369094" fgClr="F8CAAB" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1730945708" fgClr="F8CAAB" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1495,7 +1588,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00D6DCE4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00D6DCE4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1506,7 +1599,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1517,7 +1610,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1528,7 +1621,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1539,7 +1632,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1550,7 +1643,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1561,7 +1654,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1572,7 +1665,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00ACB9CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00ACB9CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1583,7 +1676,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1594,7 +1687,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1605,7 +1698,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1616,7 +1709,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1627,7 +1720,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00D8D8D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00D8D8D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1638,7 +1731,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1649,7 +1742,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00806000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00806000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1660,7 +1753,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1671,7 +1764,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00375623" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00375623" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1682,7 +1775,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00515151" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00515151" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1693,7 +1786,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1704,7 +1797,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1715,7 +1808,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1726,7 +1819,29 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE0E0"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="12" fgClr="00FF0000" bgLvl="88" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9E9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="38" fgClr="00FF0000" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1737,29 +1852,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE0E0"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="12" fgClr="00FF0000" bgLvl="88" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9E9E"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1675369094" type="1" fgLvl="38" fgClr="00FF0000" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1730945708" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1781,7 +1874,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1800,7 +1893,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1819,7 +1912,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1838,7 +1931,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1857,7 +1950,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1876,7 +1969,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1895,7 +1988,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1914,7 +2007,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1933,7 +2026,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1952,7 +2045,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1971,7 +2064,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -1990,7 +2083,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2009,7 +2102,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2028,7 +2121,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2047,7 +2140,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2066,7 +2159,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2085,7 +2178,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2104,7 +2197,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2123,7 +2216,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2142,7 +2235,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2161,7 +2254,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2180,7 +2273,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2199,7 +2292,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2218,7 +2311,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2237,7 +2330,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2256,7 +2349,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1675369094"/>
+          <pm:border xmlns:pm="smNativeData" id="1730945708"/>
         </ext>
       </extLst>
     </border>
@@ -2264,7 +2357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
@@ -2291,7 +2384,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1"/>
@@ -2302,9 +2394,9 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="25" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2312,10 +2404,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1675369094" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1730945708" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1675369094" count="24">
+      <pm:colors xmlns:pm="smNativeData" id="1730945708" count="26">
         <pm:color name="Color 24" rgb="806000"/>
         <pm:color name="Color 25" rgb="7E7E7E"/>
         <pm:color name="Color 26" rgb="0B0B0B"/>
@@ -2340,6 +2432,8 @@
         <pm:color name="Color 45" rgb="515151"/>
         <pm:color name="Color 46" rgb="D9E1F2"/>
         <pm:color name="Color 47" rgb="FFFF9E"/>
+        <pm:color name="Color 48" rgb="FFE0E0"/>
+        <pm:color name="Color 49" rgb="FF9E9E"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -2602,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE105"/>
+  <dimension ref="A1:AE113"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="K64" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AC83" sqref="AC83"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A37" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -2613,19 +2707,20 @@
     <col min="1" max="1" width="12.214286" customWidth="1"/>
     <col min="2" max="2" width="13.883929" customWidth="1"/>
     <col min="3" max="3" width="10.776786" customWidth="1"/>
-    <col min="4" max="4" width="10.883929" customWidth="1"/>
-    <col min="5" max="5" width="10.214286" customWidth="1"/>
+    <col min="4" max="4" width="13.410714" customWidth="1"/>
+    <col min="5" max="5" width="15.258929" customWidth="1"/>
     <col min="6" max="6" width="11.883929" customWidth="1"/>
     <col min="7" max="7" width="10.000000" customWidth="1"/>
     <col min="8" max="8" width="12.214286" customWidth="1"/>
     <col min="9" max="9" width="11.107143" customWidth="1"/>
     <col min="10" max="10" width="14.437500" customWidth="1"/>
-    <col min="11" max="11" width="14.883929" customWidth="1"/>
+    <col min="11" max="11" width="11.294643" customWidth="1"/>
     <col min="12" max="12" width="13.330357" customWidth="1"/>
-    <col min="13" max="14" width="12.214286" customWidth="1"/>
+    <col min="13" max="13" width="15.562500" customWidth="1"/>
+    <col min="14" max="14" width="12.214286" customWidth="1"/>
     <col min="15" max="15" width="12.107143" customWidth="1"/>
     <col min="16" max="17" width="11.776786" customWidth="1"/>
-    <col min="18" max="18" width="11.330357" customWidth="1"/>
+    <col min="18" max="18" width="15.562500" customWidth="1"/>
     <col min="19" max="19" width="10.830357" customWidth="1"/>
     <col min="20" max="20" width="10.616071" customWidth="1"/>
     <col min="21" max="21" width="9.776786" customWidth="1"/>
@@ -2745,7 +2840,7 @@
       <c r="P2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>36</v>
       </c>
       <c r="R2" s="14" t="s">
@@ -2813,7 +2908,7 @@
       <c r="P3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>57</v>
       </c>
       <c r="R3" s="14" t="s">
@@ -2857,7 +2952,7 @@
       <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -2925,7 +3020,7 @@
       <c r="H5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>87</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -2990,7 +3085,7 @@
       <c r="H6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>105</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -3011,49 +3106,52 @@
       <c r="P6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="31" t="s">
         <v>111</v>
       </c>
+      <c r="R6" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="S6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>111</v>
@@ -3062,72 +3160,75 @@
         <v>35</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="32" t="s">
         <v>128</v>
       </c>
+      <c r="Q7" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="T7" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Y7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>68</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>72</v>
@@ -3136,148 +3237,157 @@
         <v>39</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="T8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="U8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="V8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>151</v>
+      <c r="I9" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="T9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="U9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Y9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>162</v>
+        <v>120</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="T10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="U10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -3286,96 +3396,108 @@
         <v>90</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>168</v>
+        <v>138</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>175</v>
+        <v>180</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="T11" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="U11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="9" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="H12" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>185</v>
+        <v>191</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>189</v>
+        <v>195</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="T12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="U12" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3383,52 +3505,58 @@
         <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H13" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>198</v>
+        <v>206</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>87</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>202</v>
+        <v>210</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="T13" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="U13" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3436,13 +3564,13 @@
         <v>84</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>37</v>
@@ -3451,37 +3579,40 @@
         <v>88</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>105</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="T14" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="U14" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3489,10 +3620,10 @@
         <v>102</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>63</v>
@@ -3504,95 +3635,104 @@
         <v>106</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>218</v>
+        <v>228</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>225</v>
+        <v>236</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="T15" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="U15" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>232</v>
+        <v>243</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>236</v>
+        <v>249</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="T16" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="U16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>108</v>
@@ -3601,997 +3741,1116 @@
         <v>99</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>242</v>
+        <v>255</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>246</v>
+        <v>261</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="T17" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>250</v>
+        <v>137</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>266</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>252</v>
+        <v>268</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="T18" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="24" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>107</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>261</v>
+        <v>151</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>262</v>
+        <v>280</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>263</v>
+        <v>282</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>265</v>
+        <v>284</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="T19" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="24" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>271</v>
+        <v>163</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>292</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>272</v>
+        <v>293</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>294</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>274</v>
+        <v>295</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="T20" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>280</v>
+        <v>304</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>281</v>
+        <v>306</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="T21" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="U21" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="V21" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="9" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>314</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>218</v>
+        <v>229</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>288</v>
+        <v>316</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="T22" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="U22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V22" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="9" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>296</v>
+        <v>327</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="T23" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="U23" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="24" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>277</v>
+      <c r="M24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>335</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>228</v>
+        <v>336</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="T24" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="U24" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="24" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="T25" t="s">
         <v>111</v>
       </c>
       <c r="U25" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="9" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>317</v>
+        <v>349</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>351</v>
       </c>
       <c r="T26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U26" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="9" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>287</v>
+        <v>313</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>322</v>
+        <v>355</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="T27" t="s">
         <v>35</v>
       </c>
       <c r="U27" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="24" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>294</v>
+        <v>323</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>104</v>
       </c>
+      <c r="R28" s="13" t="s">
+        <v>363</v>
+      </c>
       <c r="T28" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="24" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q29" s="32" t="s">
-        <v>211</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="R29"/>
       <c r="T29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>369</v>
+      </c>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>254</v>
+        <v>271</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="24" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="9" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="24" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>212</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="D38" s="11" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
-        <v>176</v>
+        <v>183</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="24" t="s">
-        <v>355</v>
+        <v>391</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="24" t="s">
-        <v>356</v>
+        <v>392</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="9" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="9" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="24" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="24" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="24" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="24" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="9" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="9" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="24" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="24" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="9" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>370</v>
+        <v>404</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>406</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>372</v>
+        <v>407</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="K53" s="25" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="M53" s="20"/>
-      <c r="N53" s="31" t="s">
-        <v>375</v>
+      <c r="N53" s="30" t="s">
+        <v>411</v>
       </c>
       <c r="O53" s="17"/>
-      <c r="P53" s="19"/>
+      <c r="P53" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="Q53" s="21" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="9" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>379</v>
+        <v>415</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>416</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>381</v>
+        <v>417</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>418</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>383</v>
+        <v>419</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>420</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="M54" s="20"/>
-      <c r="N54" s="31" t="s">
-        <v>384</v>
+      <c r="N54" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="21" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="24" t="s">
-        <v>335</v>
+        <v>371</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>387</v>
+        <v>425</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>426</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>389</v>
+        <v>427</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>428</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="M55" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="N55" s="31" t="s">
-        <v>391</v>
+        <v>429</v>
+      </c>
+      <c r="M55" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>392</v>
+        <v>247</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>431</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>393</v>
+        <v>414</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>432</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="N56" s="26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>387</v>
+        <v>259</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>426</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="N57" s="26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="N58" s="26" t="s">
-        <v>397</v>
+        <v>378</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>381</v>
+        <v>434</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>389</v>
+        <v>377</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>393</v>
+        <v>208</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>400</v>
+        <v>435</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>402</v>
+        <v>437</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>383</v>
+        <v>266</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D66" s="27"/>
+        <v>279</v>
+      </c>
+      <c r="D66" s="26"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D67" s="27"/>
+        <v>439</v>
+      </c>
+      <c r="D67" s="26"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="D68" s="27"/>
+        <v>440</v>
+      </c>
+      <c r="D68" s="26"/>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="9" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="9" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -4599,106 +4858,37 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="26:27">
-      <c r="Z72" s="37"/>
+    <row r="72" spans="1:27">
+      <c r="A72" s="24"/>
+      <c r="Z72" s="36"/>
       <c r="AA72" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:27">
-      <c r="A73" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z73" s="39"/>
+      <c r="A73" s="24"/>
+      <c r="Z73" s="38"/>
       <c r="AA73" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
-      <c r="A75" s="18" t="s">
-        <v>374</v>
-      </c>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="26:26">
       <c r="Z75" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31">
-      <c r="A76" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>368</v>
-      </c>
-      <c r="C76" t="n">
-        <v>31</v>
-      </c>
-      <c r="D76" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" t="n">
-        <v>61</v>
-      </c>
-      <c r="F76" t="s">
-        <v>147</v>
-      </c>
-      <c r="G76" t="n">
-        <v>91</v>
-      </c>
-      <c r="H76" t="s">
-        <v>216</v>
-      </c>
-      <c r="I76" t="n">
-        <v>121</v>
-      </c>
-      <c r="J76" t="s">
-        <v>169</v>
-      </c>
-      <c r="K76" t="n">
-        <v>151</v>
-      </c>
-      <c r="L76" t="s">
-        <v>337</v>
-      </c>
-      <c r="M76" t="n">
-        <v>181</v>
-      </c>
-      <c r="N76" t="s">
-        <v>213</v>
-      </c>
-      <c r="O76" t="n">
-        <v>211</v>
-      </c>
-      <c r="P76" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>241</v>
-      </c>
-      <c r="R76" t="s">
-        <v>272</v>
-      </c>
-      <c r="S76" t="n">
-        <v>271</v>
-      </c>
-      <c r="T76" t="s">
-        <v>321</v>
-      </c>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="25:31">
       <c r="Y76" t="n">
         <v>900</v>
       </c>
       <c r="Z76" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="AA76" t="n">
         <v>930</v>
       </c>
-      <c r="AB76" s="39" t="s">
-        <v>292</v>
+      <c r="AB76" s="38" t="s">
+        <v>321</v>
       </c>
       <c r="AC76" t="n">
         <v>960</v>
@@ -4707,75 +4897,18 @@
         <v>990</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
-      <c r="A77" t="n">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>378</v>
-      </c>
-      <c r="C77" t="n">
-        <v>32</v>
-      </c>
-      <c r="D77" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" t="n">
-        <v>62</v>
-      </c>
-      <c r="F77" t="s">
-        <v>158</v>
-      </c>
-      <c r="G77" t="n">
-        <v>92</v>
-      </c>
-      <c r="H77" t="s">
-        <v>229</v>
-      </c>
-      <c r="I77" t="n">
-        <v>122</v>
-      </c>
-      <c r="J77" t="s">
-        <v>178</v>
-      </c>
-      <c r="K77" t="n">
-        <v>152</v>
-      </c>
-      <c r="L77" t="s">
-        <v>340</v>
-      </c>
-      <c r="M77" t="n">
-        <v>182</v>
-      </c>
-      <c r="N77" t="s">
-        <v>225</v>
-      </c>
-      <c r="O77" t="n">
-        <v>212</v>
-      </c>
-      <c r="P77" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>242</v>
-      </c>
-      <c r="R77" t="s">
-        <v>280</v>
-      </c>
-      <c r="S77" t="n">
-        <v>272</v>
-      </c>
-      <c r="T77" t="s">
-        <v>327</v>
-      </c>
+    <row r="77" spans="25:31">
       <c r="Y77" t="n">
         <v>901</v>
       </c>
+      <c r="Z77" t="s">
+        <v>423</v>
+      </c>
       <c r="AA77" t="n">
         <v>931</v>
       </c>
-      <c r="AB77" s="39" t="s">
-        <v>123</v>
+      <c r="AB77" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="AC77" t="n">
         <v>961</v>
@@ -4784,75 +4917,18 @@
         <v>991</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
-      <c r="A78" t="n">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
-        <v>386</v>
-      </c>
-      <c r="C78" t="n">
-        <v>33</v>
-      </c>
-      <c r="D78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" t="n">
-        <v>63</v>
-      </c>
-      <c r="F78" t="s">
-        <v>192</v>
-      </c>
-      <c r="G78" t="n">
-        <v>93</v>
-      </c>
-      <c r="H78" t="s">
-        <v>187</v>
-      </c>
-      <c r="I78" t="n">
-        <v>123</v>
-      </c>
-      <c r="J78" t="s">
-        <v>66</v>
-      </c>
-      <c r="K78" t="n">
-        <v>153</v>
-      </c>
-      <c r="L78" t="s">
-        <v>350</v>
-      </c>
-      <c r="M78" t="n">
-        <v>183</v>
-      </c>
-      <c r="N78" t="s">
-        <v>236</v>
-      </c>
-      <c r="O78" t="n">
-        <v>213</v>
-      </c>
-      <c r="P78" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>243</v>
-      </c>
-      <c r="R78" t="s">
-        <v>207</v>
-      </c>
-      <c r="S78" t="n">
-        <v>273</v>
-      </c>
-      <c r="T78" t="s">
-        <v>332</v>
-      </c>
+    <row r="78" spans="25:31">
       <c r="Y78" t="n">
         <v>902</v>
       </c>
+      <c r="Z78" t="s">
+        <v>422</v>
+      </c>
       <c r="AA78" t="n">
         <v>932</v>
       </c>
-      <c r="AB78" s="39" t="s">
-        <v>139</v>
+      <c r="AB78" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="AC78" t="n">
         <v>962</v>
@@ -4861,608 +4937,353 @@
         <v>992</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
-      <c r="A79" t="n">
-        <v>4</v>
-      </c>
-      <c r="B79" t="s">
-        <v>367</v>
-      </c>
-      <c r="C79" t="n">
-        <v>34</v>
-      </c>
-      <c r="D79" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" t="n">
-        <v>64</v>
-      </c>
-      <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="n">
-        <v>94</v>
-      </c>
-      <c r="H79" t="s">
-        <v>62</v>
-      </c>
-      <c r="I79" t="n">
-        <v>124</v>
-      </c>
-      <c r="J79" t="s">
-        <v>84</v>
-      </c>
-      <c r="K79" t="n">
-        <v>154</v>
-      </c>
-      <c r="L79" t="s">
-        <v>354</v>
-      </c>
-      <c r="M79" t="n">
-        <v>184</v>
-      </c>
-      <c r="N79" t="s">
-        <v>246</v>
-      </c>
-      <c r="O79" t="n">
-        <v>214</v>
-      </c>
-      <c r="P79" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>244</v>
-      </c>
-      <c r="R79" t="s">
-        <v>218</v>
-      </c>
-      <c r="S79" t="n">
-        <v>274</v>
-      </c>
-      <c r="T79" t="s">
-        <v>336</v>
-      </c>
+    <row r="79" spans="25:29">
       <c r="Y79" t="n">
         <v>903</v>
       </c>
+      <c r="Z79" t="s">
+        <v>412</v>
+      </c>
       <c r="AA79" t="n">
         <v>933</v>
       </c>
-      <c r="AB79" s="39" t="s">
-        <v>152</v>
+      <c r="AB79" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="AC79" t="n">
         <v>963</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>377</v>
-      </c>
-      <c r="C80" t="n">
-        <v>35</v>
-      </c>
-      <c r="D80" t="s">
-        <v>65</v>
-      </c>
-      <c r="E80" t="n">
-        <v>65</v>
-      </c>
-      <c r="F80" t="s">
-        <v>106</v>
-      </c>
-      <c r="G80" t="n">
-        <v>95</v>
-      </c>
-      <c r="H80" t="s">
-        <v>108</v>
-      </c>
-      <c r="I80" t="n">
-        <v>125</v>
-      </c>
-      <c r="J80" t="s">
-        <v>102</v>
-      </c>
-      <c r="K80" t="n">
-        <v>155</v>
-      </c>
-      <c r="L80" t="s">
-        <v>403</v>
-      </c>
-      <c r="M80" t="n">
-        <v>185</v>
-      </c>
-      <c r="N80" t="s">
-        <v>256</v>
-      </c>
-      <c r="O80" t="n">
-        <v>215</v>
-      </c>
-      <c r="P80" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>245</v>
-      </c>
-      <c r="R80" t="s">
-        <v>230</v>
-      </c>
-      <c r="S80" t="n">
-        <v>275</v>
-      </c>
-      <c r="T80" t="s">
-        <v>254</v>
-      </c>
+    <row r="80" spans="25:29">
       <c r="Y80" t="n">
         <v>904</v>
       </c>
-      <c r="Z80" s="38" t="s">
+      <c r="Z80" s="37" t="s">
         <v>56</v>
       </c>
       <c r="AA80" t="n">
         <v>934</v>
       </c>
-      <c r="AB80" s="39" t="s">
-        <v>163</v>
+      <c r="AB80" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="AC80" t="n">
         <v>964</v>
       </c>
     </row>
     <row r="81" spans="1:29">
-      <c r="A81" t="n">
-        <v>6</v>
+      <c r="A81" s="18" t="s">
+        <v>446</v>
       </c>
       <c r="B81" t="s">
-        <v>385</v>
-      </c>
-      <c r="C81" t="n">
-        <v>36</v>
-      </c>
-      <c r="D81" t="s">
-        <v>83</v>
-      </c>
-      <c r="E81" t="n">
-        <v>66</v>
-      </c>
-      <c r="F81" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" t="n">
-        <v>96</v>
-      </c>
-      <c r="H81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I81" t="n">
-        <v>126</v>
-      </c>
-      <c r="J81" t="s">
-        <v>120</v>
-      </c>
-      <c r="K81" t="n">
-        <v>156</v>
-      </c>
-      <c r="L81" t="s">
-        <v>404</v>
-      </c>
-      <c r="M81" t="n">
-        <v>186</v>
-      </c>
-      <c r="N81" t="s">
-        <v>265</v>
-      </c>
-      <c r="O81" t="n">
-        <v>216</v>
-      </c>
-      <c r="P81" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>246</v>
-      </c>
-      <c r="R81" t="s">
-        <v>240</v>
-      </c>
-      <c r="S81" t="n">
-        <v>276</v>
-      </c>
-      <c r="T81" t="s">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="Y81" t="n">
         <v>905</v>
       </c>
-      <c r="Z81" s="38" t="s">
+      <c r="Z81" s="37" t="s">
         <v>74</v>
       </c>
       <c r="AA81" t="n">
         <v>935</v>
       </c>
-      <c r="AB81" s="39" t="s">
-        <v>224</v>
+      <c r="AB81" s="38" t="s">
+        <v>235</v>
       </c>
       <c r="AC81" t="n">
         <v>965</v>
       </c>
     </row>
     <row r="82" spans="1:30">
-      <c r="A82" t="n">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>408</v>
-      </c>
-      <c r="C82" t="n">
-        <v>37</v>
-      </c>
-      <c r="D82" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" t="n">
-        <v>67</v>
-      </c>
-      <c r="F82" t="s">
-        <v>60</v>
-      </c>
-      <c r="G82" t="n">
-        <v>97</v>
-      </c>
-      <c r="H82" t="s">
-        <v>180</v>
-      </c>
-      <c r="I82" t="n">
-        <v>127</v>
-      </c>
-      <c r="J82" t="s">
-        <v>398</v>
-      </c>
-      <c r="K82" t="n">
-        <v>157</v>
-      </c>
-      <c r="L82" t="s">
-        <v>362</v>
-      </c>
-      <c r="M82" t="n">
-        <v>187</v>
-      </c>
-      <c r="N82" t="s">
-        <v>274</v>
-      </c>
-      <c r="O82" t="n">
-        <v>217</v>
-      </c>
-      <c r="P82" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>247</v>
-      </c>
-      <c r="R82" t="s">
-        <v>315</v>
-      </c>
-      <c r="S82" t="n">
-        <v>277</v>
-      </c>
-      <c r="T82" t="s">
-        <v>212</v>
+      <c r="A82" s="18" t="s">
+        <v>448</v>
       </c>
       <c r="Y82" t="n">
         <v>906</v>
       </c>
-      <c r="Z82" s="38" t="s">
+      <c r="Z82" s="37" t="s">
         <v>92</v>
       </c>
       <c r="AA82" t="n">
         <v>936</v>
       </c>
-      <c r="AB82" s="39" t="s">
-        <v>235</v>
+      <c r="AB82" s="38" t="s">
+        <v>248</v>
       </c>
       <c r="AC82" t="n">
         <v>966</v>
       </c>
       <c r="AD82" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:30">
-      <c r="A83" t="n">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="C83" t="n">
-        <v>38</v>
-      </c>
-      <c r="D83" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" t="n">
-        <v>68</v>
-      </c>
-      <c r="F83" t="s">
-        <v>234</v>
-      </c>
-      <c r="G83" t="n">
-        <v>98</v>
-      </c>
-      <c r="H83" t="s">
-        <v>193</v>
-      </c>
-      <c r="I83" t="n">
-        <v>128</v>
-      </c>
-      <c r="J83" t="s">
-        <v>341</v>
-      </c>
-      <c r="K83" t="n">
-        <v>158</v>
-      </c>
-      <c r="L83" t="s">
-        <v>363</v>
-      </c>
-      <c r="M83" t="n">
-        <v>188</v>
-      </c>
-      <c r="N83" t="s">
-        <v>281</v>
-      </c>
-      <c r="O83" t="n">
-        <v>218</v>
-      </c>
-      <c r="P83" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>248</v>
-      </c>
-      <c r="R83" t="s">
-        <v>320</v>
-      </c>
-      <c r="S83" t="n">
-        <v>278</v>
-      </c>
-      <c r="T83" t="s">
-        <v>271</v>
       </c>
       <c r="Y83" t="n">
         <v>907</v>
       </c>
-      <c r="Z83" s="38" t="s">
+      <c r="Z83" s="37" t="s">
         <v>110</v>
       </c>
       <c r="AA83" t="n">
         <v>937</v>
       </c>
-      <c r="AB83" s="39" t="s">
-        <v>245</v>
+      <c r="AB83" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="AC83" t="n">
         <v>967</v>
       </c>
       <c r="AD83" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C84" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E84" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="G84" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="I84" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J84" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="K84" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L84" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="M84" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="N84" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="O84" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P84" t="s">
-        <v>349</v>
+        <v>449</v>
       </c>
       <c r="Q84" t="n">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="R84" t="s">
-        <v>326</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="S84" t="n">
+        <v>271</v>
+      </c>
+      <c r="T84" t="s">
+        <v>355</v>
+      </c>
+      <c r="U84" t="n">
+        <v>301</v>
+      </c>
+      <c r="V84"/>
       <c r="Y84" t="n">
         <v>908</v>
       </c>
-      <c r="Z84" s="38" t="s">
-        <v>127</v>
+      <c r="Z84" s="37" t="s">
+        <v>128</v>
       </c>
       <c r="AA84" t="n">
         <v>938</v>
       </c>
-      <c r="AB84" s="39" t="s">
-        <v>417</v>
+      <c r="AB84" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="AC84" t="n">
         <v>968</v>
       </c>
       <c r="AD84" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>418</v>
+        <v>138</v>
       </c>
       <c r="E85" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F85" t="s">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="I85" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J85" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="K85" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L85" t="s">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="M85" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="N85" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="O85" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P85" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="Q85" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="R85" t="s">
-        <v>331</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="S85" t="n">
+        <v>272</v>
+      </c>
+      <c r="T85" t="s">
+        <v>362</v>
+      </c>
+      <c r="U85" t="n">
+        <v>302</v>
+      </c>
+      <c r="V85"/>
       <c r="Y85" t="n">
         <v>909</v>
       </c>
-      <c r="Z85" s="38" t="s">
-        <v>184</v>
+      <c r="Z85" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="AA85" t="n">
         <v>939</v>
       </c>
-      <c r="AB85" s="39" t="s">
-        <v>419</v>
+      <c r="AB85" s="38" t="s">
+        <v>294</v>
       </c>
       <c r="AC85" t="n">
         <v>969</v>
       </c>
       <c r="AD85" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" spans="1:29">
       <c r="A86" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="C86" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="n">
+        <v>63</v>
+      </c>
+      <c r="F86" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" t="n">
+        <v>93</v>
+      </c>
+      <c r="H86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I86" t="n">
+        <v>123</v>
+      </c>
+      <c r="J86" t="s">
+        <v>66</v>
+      </c>
+      <c r="K86" t="n">
+        <v>153</v>
+      </c>
+      <c r="L86" t="s">
+        <v>386</v>
+      </c>
+      <c r="M86" t="n">
+        <v>183</v>
+      </c>
+      <c r="N86" t="s">
+        <v>249</v>
+      </c>
+      <c r="O86" t="n">
+        <v>213</v>
+      </c>
+      <c r="P86" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>243</v>
+      </c>
+      <c r="R86" t="s">
         <v>217</v>
       </c>
-      <c r="E86" t="n">
-        <v>71</v>
-      </c>
-      <c r="F86" t="s">
-        <v>183</v>
-      </c>
-      <c r="G86" t="n">
-        <v>101</v>
-      </c>
-      <c r="H86" t="s">
-        <v>270</v>
-      </c>
-      <c r="I86" t="n">
-        <v>131</v>
-      </c>
-      <c r="J86" t="s">
-        <v>176</v>
-      </c>
-      <c r="K86" t="n">
-        <v>161</v>
-      </c>
-      <c r="L86" t="s">
-        <v>290</v>
-      </c>
-      <c r="M86" t="n">
-        <v>191</v>
-      </c>
-      <c r="N86" t="s">
-        <v>228</v>
-      </c>
-      <c r="O86" t="n">
-        <v>221</v>
-      </c>
-      <c r="P86" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>251</v>
-      </c>
-      <c r="R86" t="s">
-        <v>335</v>
-      </c>
+      <c r="S86" t="n">
+        <v>273</v>
+      </c>
+      <c r="T86" t="s">
+        <v>368</v>
+      </c>
+      <c r="U86" t="n">
+        <v>303</v>
+      </c>
+      <c r="V86"/>
       <c r="Y86" t="n">
         <v>910</v>
       </c>
-      <c r="Z86" s="38" t="s">
-        <v>197</v>
+      <c r="Z86" s="37" t="s">
+        <v>206</v>
       </c>
       <c r="AA86" t="n">
         <v>940</v>
       </c>
-      <c r="AB86" s="39" t="s">
-        <v>420</v>
+      <c r="AB86" s="38" t="s">
+        <v>305</v>
       </c>
       <c r="AC86" t="n">
         <v>970</v>
@@ -5470,70 +5291,79 @@
     </row>
     <row r="87" spans="1:29">
       <c r="A87" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C87" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E87" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="G87" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H87" t="s">
-        <v>279</v>
+        <v>62</v>
       </c>
       <c r="I87" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J87" t="s">
-        <v>399</v>
+        <v>84</v>
       </c>
       <c r="K87" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L87" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="M87" t="n">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N87" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="O87" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>452</v>
       </c>
       <c r="Q87" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="R87" t="s">
-        <v>338</v>
+        <v>229</v>
+      </c>
+      <c r="S87" t="n">
+        <v>274</v>
+      </c>
+      <c r="T87" t="s">
+        <v>372</v>
+      </c>
+      <c r="U87" t="n">
+        <v>304</v>
       </c>
       <c r="Y87" t="n">
         <v>911</v>
       </c>
-      <c r="Z87" s="38" t="s">
-        <v>160</v>
+      <c r="Z87" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="AA87" t="n">
         <v>941</v>
       </c>
-      <c r="AB87" s="39" t="s">
-        <v>395</v>
+      <c r="AB87" s="38" t="s">
+        <v>315</v>
       </c>
       <c r="AC87" t="n">
         <v>971</v>
@@ -5541,218 +5371,248 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>414</v>
       </c>
       <c r="C88" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>421</v>
+        <v>65</v>
       </c>
       <c r="E88" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F88" t="s">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="G88" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H88" t="s">
-        <v>422</v>
+        <v>108</v>
       </c>
       <c r="I88" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J88" t="s">
-        <v>401</v>
+        <v>102</v>
       </c>
       <c r="K88" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L88" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="M88" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N88" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="O88" t="n">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P88" t="s">
-        <v>138</v>
+        <v>453</v>
       </c>
       <c r="Q88" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="R88" t="s">
-        <v>295</v>
+        <v>242</v>
+      </c>
+      <c r="S88" t="n">
+        <v>275</v>
+      </c>
+      <c r="T88" t="s">
+        <v>271</v>
+      </c>
+      <c r="U88" t="n">
+        <v>305</v>
       </c>
       <c r="Y88" t="n">
         <v>912</v>
       </c>
-      <c r="Z88" s="38" t="s">
-        <v>171</v>
+      <c r="Z88" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="AA88" t="n">
         <v>942</v>
       </c>
-      <c r="AB88" s="39" t="s">
-        <v>396</v>
+      <c r="AB88" s="38" t="s">
+        <v>325</v>
       </c>
       <c r="AC88" t="n">
         <v>972</v>
       </c>
       <c r="AD88" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>424</v>
       </c>
       <c r="C89" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="E89" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F89" t="s">
-        <v>344</v>
+        <v>39</v>
       </c>
       <c r="G89" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H89" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="I89" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J89" t="s">
-        <v>250</v>
+        <v>121</v>
       </c>
       <c r="K89" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L89" t="s">
-        <v>307</v>
+        <v>440</v>
       </c>
       <c r="M89" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="N89" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="O89" t="n">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P89" t="s">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="Q89" t="n">
+        <v>246</v>
+      </c>
+      <c r="R89" t="s">
         <v>254</v>
       </c>
-      <c r="R89" t="s">
-        <v>303</v>
+      <c r="S89" t="n">
+        <v>276</v>
+      </c>
+      <c r="T89" t="s">
+        <v>366</v>
+      </c>
+      <c r="U89" t="n">
+        <v>306</v>
       </c>
       <c r="Y89" t="n">
         <v>913</v>
       </c>
-      <c r="Z89" s="38" t="s">
-        <v>141</v>
+      <c r="Z89" s="37" t="s">
+        <v>143</v>
       </c>
       <c r="AA89" t="n">
         <v>943</v>
       </c>
-      <c r="AB89" s="39" t="s">
-        <v>397</v>
+      <c r="AB89" s="38" t="s">
+        <v>335</v>
       </c>
       <c r="AC89" t="n">
         <v>973</v>
       </c>
       <c r="AD89" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="1:29">
       <c r="A90" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>446</v>
       </c>
       <c r="C90" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E90" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F90" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G90" t="n">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H90" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="I90" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J90" t="s">
-        <v>261</v>
+        <v>434</v>
       </c>
       <c r="K90" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L90" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="M90" t="n">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="N90" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="O90" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="Q90" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="R90" t="s">
-        <v>310</v>
+        <v>348</v>
+      </c>
+      <c r="S90" t="n">
+        <v>277</v>
+      </c>
+      <c r="T90" t="s">
+        <v>222</v>
+      </c>
+      <c r="U90" t="n">
+        <v>307</v>
+      </c>
+      <c r="V90" t="s">
+        <v>351</v>
       </c>
       <c r="Y90" t="n">
         <v>914</v>
       </c>
-      <c r="Z90" s="38" t="s">
-        <v>153</v>
+      <c r="Z90" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="AA90" t="n">
         <v>944</v>
       </c>
-      <c r="AB90" s="39" t="s">
-        <v>425</v>
+      <c r="AB90" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="AC90" t="n">
         <v>974</v>
@@ -5760,70 +5620,82 @@
     </row>
     <row r="91" spans="1:29">
       <c r="A91" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>448</v>
       </c>
       <c r="C91" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E91" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="G91" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H91" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="I91" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J91" t="s">
-        <v>68</v>
+        <v>377</v>
       </c>
       <c r="K91" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L91" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="M91" t="n">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="N91" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="O91" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Q91" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="R91" t="s">
-        <v>316</v>
+        <v>354</v>
+      </c>
+      <c r="S91" t="n">
+        <v>278</v>
+      </c>
+      <c r="T91" t="s">
+        <v>292</v>
+      </c>
+      <c r="U91" t="n">
+        <v>308</v>
+      </c>
+      <c r="V91" t="s">
+        <v>357</v>
       </c>
       <c r="Y91" t="n">
         <v>915</v>
       </c>
-      <c r="Z91" s="38" t="s">
-        <v>164</v>
+      <c r="Z91" s="37" t="s">
+        <v>168</v>
       </c>
       <c r="AA91" t="n">
         <v>945</v>
       </c>
-      <c r="AB91" s="39" t="s">
-        <v>426</v>
+      <c r="AB91" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="AC91" t="n">
         <v>975</v>
@@ -5831,141 +5703,165 @@
     </row>
     <row r="92" spans="1:29">
       <c r="A92" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>410</v>
       </c>
       <c r="C92" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E92" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="G92" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H92" t="s">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="I92" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J92" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="K92" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L92" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M92" t="n">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N92" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="O92" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P92" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="Q92" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="R92" t="s">
-        <v>252</v>
+        <v>361</v>
+      </c>
+      <c r="S92" t="n">
+        <v>279</v>
+      </c>
+      <c r="T92" t="s">
+        <v>130</v>
+      </c>
+      <c r="U92" t="n">
+        <v>309</v>
+      </c>
+      <c r="V92" t="s">
+        <v>363</v>
       </c>
       <c r="Y92" t="n">
         <v>916</v>
       </c>
-      <c r="Z92" s="38" t="s">
-        <v>181</v>
+      <c r="Z92" s="37" t="s">
+        <v>187</v>
       </c>
       <c r="AA92" t="n">
         <v>946</v>
       </c>
-      <c r="AB92" s="39" t="s">
-        <v>427</v>
+      <c r="AB92" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="AC92" t="n">
         <v>976</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:29">
       <c r="A93" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>407</v>
       </c>
       <c r="C93" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
+        <v>456</v>
+      </c>
+      <c r="E93" t="n">
         <v>70</v>
       </c>
-      <c r="E93" t="n">
-        <v>78</v>
-      </c>
       <c r="F93" t="s">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="G93" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H93" t="s">
-        <v>309</v>
+        <v>107</v>
       </c>
       <c r="I93" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J93" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="K93" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L93" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M93" t="n">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N93" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="O93" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P93" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="Q93" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="R93" t="s">
-        <v>262</v>
+        <v>367</v>
+      </c>
+      <c r="S93" t="n">
+        <v>280</v>
+      </c>
+      <c r="T93" t="s">
+        <v>145</v>
+      </c>
+      <c r="U93" t="n">
+        <v>310</v>
+      </c>
+      <c r="V93" t="s">
+        <v>457</v>
       </c>
       <c r="Y93" t="n">
         <v>917</v>
       </c>
-      <c r="Z93" s="38" t="s">
-        <v>194</v>
+      <c r="Z93" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="AA93" t="n">
         <v>947</v>
       </c>
-      <c r="AB93" s="39" t="s">
-        <v>429</v>
+      <c r="AB93" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="AC93" t="n">
         <v>977</v>
@@ -5973,70 +5869,82 @@
     </row>
     <row r="94" spans="1:29">
       <c r="A94" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="C94" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="E94" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="G94" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H94" t="s">
+        <v>291</v>
+      </c>
+      <c r="I94" t="n">
         <v>131</v>
       </c>
-      <c r="I94" t="n">
-        <v>139</v>
-      </c>
       <c r="J94" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="K94" t="n">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="L94" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="M94" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N94" t="s">
-        <v>239</v>
+        <v>458</v>
       </c>
       <c r="O94" t="n">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q94" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="R94" t="s">
-        <v>355</v>
+        <v>371</v>
+      </c>
+      <c r="S94" t="n">
+        <v>281</v>
+      </c>
+      <c r="T94" t="s">
+        <v>158</v>
+      </c>
+      <c r="U94" t="n">
+        <v>311</v>
+      </c>
+      <c r="V94" t="s">
+        <v>459</v>
       </c>
       <c r="Y94" t="n">
         <v>918</v>
       </c>
-      <c r="Z94" s="38" t="s">
-        <v>299</v>
+      <c r="Z94" s="37" t="s">
+        <v>331</v>
       </c>
       <c r="AA94" t="n">
         <v>948</v>
       </c>
-      <c r="AB94" s="39" t="s">
-        <v>430</v>
+      <c r="AB94" s="38" t="s">
+        <v>314</v>
       </c>
       <c r="AC94" t="n">
         <v>978</v>
@@ -6044,70 +5952,79 @@
     </row>
     <row r="95" spans="1:29">
       <c r="A95" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="C95" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" t="n">
+        <v>72</v>
+      </c>
+      <c r="F95" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" t="n">
+        <v>102</v>
+      </c>
+      <c r="H95" t="s">
+        <v>302</v>
+      </c>
+      <c r="I95" t="n">
+        <v>132</v>
+      </c>
+      <c r="J95" t="s">
+        <v>435</v>
+      </c>
+      <c r="K95" t="n">
+        <v>162</v>
+      </c>
+      <c r="L95" t="s">
+        <v>320</v>
+      </c>
+      <c r="M95" t="n">
+        <v>192</v>
+      </c>
+      <c r="N95" t="s">
         <v>179</v>
       </c>
-      <c r="E95" t="n">
-        <v>80</v>
-      </c>
-      <c r="F95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G95" t="n">
-        <v>110</v>
-      </c>
-      <c r="H95" t="s">
-        <v>36</v>
-      </c>
-      <c r="I95" t="n">
-        <v>140</v>
-      </c>
-      <c r="J95" t="s">
-        <v>128</v>
-      </c>
-      <c r="K95" t="n">
+      <c r="O95" t="n">
+        <v>222</v>
+      </c>
+      <c r="P95" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>252</v>
+      </c>
+      <c r="R95" t="s">
+        <v>374</v>
+      </c>
+      <c r="S95" t="n">
+        <v>282</v>
+      </c>
+      <c r="T95" t="s">
         <v>170</v>
       </c>
-      <c r="L95" t="s">
-        <v>294</v>
-      </c>
-      <c r="M95" t="n">
-        <v>200</v>
-      </c>
-      <c r="N95" t="s">
-        <v>249</v>
-      </c>
-      <c r="O95" t="n">
-        <v>230</v>
-      </c>
-      <c r="P95" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>260</v>
-      </c>
-      <c r="R95" t="s">
-        <v>356</v>
+      <c r="U95" t="n">
+        <v>312</v>
       </c>
       <c r="Y95" t="n">
         <v>919</v>
       </c>
-      <c r="Z95" s="38" t="s">
-        <v>306</v>
+      <c r="Z95" s="37" t="s">
+        <v>339</v>
       </c>
       <c r="AA95" t="n">
         <v>949</v>
       </c>
-      <c r="AB95" s="39" t="s">
-        <v>431</v>
+      <c r="AB95" s="38" t="s">
+        <v>324</v>
       </c>
       <c r="AC95" t="n">
         <v>979</v>
@@ -6115,69 +6032,78 @@
     </row>
     <row r="96" spans="1:29">
       <c r="A96" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C96" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>135</v>
+        <v>460</v>
       </c>
       <c r="E96" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F96" t="s">
-        <v>155</v>
+        <v>378</v>
       </c>
       <c r="G96" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H96" t="s">
-        <v>57</v>
+        <v>461</v>
       </c>
       <c r="I96" t="n">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J96" t="s">
-        <v>142</v>
+        <v>437</v>
       </c>
       <c r="K96" t="n">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L96" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="M96" t="n">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="N96" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="O96" t="n">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="Q96" t="n">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="R96" t="s">
-        <v>432</v>
+        <v>326</v>
+      </c>
+      <c r="S96" t="n">
+        <v>283</v>
+      </c>
+      <c r="T96" t="s">
+        <v>182</v>
+      </c>
+      <c r="U96" t="n">
+        <v>313</v>
       </c>
       <c r="Y96" t="n">
         <v>920</v>
       </c>
-      <c r="Z96" s="38" t="s">
-        <v>174</v>
+      <c r="Z96" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="AA96" t="n">
         <v>950</v>
       </c>
-      <c r="AB96" s="39" t="s">
+      <c r="AB96" s="38" t="s">
         <v>37</v>
       </c>
       <c r="AC96" t="n">
@@ -6186,69 +6112,78 @@
     </row>
     <row r="97" spans="1:29">
       <c r="A97" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C97" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="E97" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>380</v>
       </c>
       <c r="G97" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H97" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="I97" t="n">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J97" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="K97" t="n">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L97" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="M97" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="N97" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="O97" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P97" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="Q97" t="n">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="R97" t="s">
-        <v>433</v>
+        <v>336</v>
+      </c>
+      <c r="S97" t="n">
+        <v>284</v>
+      </c>
+      <c r="T97" t="s">
+        <v>197</v>
+      </c>
+      <c r="U97" t="n">
+        <v>314</v>
       </c>
       <c r="Y97" t="n">
         <v>921</v>
       </c>
-      <c r="Z97" s="38" t="s">
-        <v>188</v>
+      <c r="Z97" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="AA97" t="n">
         <v>951</v>
       </c>
-      <c r="AB97" s="39" t="s">
+      <c r="AB97" s="38" t="s">
         <v>58</v>
       </c>
       <c r="AC97" t="n">
@@ -6257,64 +6192,73 @@
     </row>
     <row r="98" spans="1:29">
       <c r="A98" t="n">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
         <v>23</v>
       </c>
-      <c r="B98" t="s">
-        <v>100</v>
-      </c>
       <c r="C98" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="E98" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="G98" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H98" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="I98" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J98" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="K98" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L98" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="M98" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="N98" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="O98" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P98" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="Q98" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="R98" t="s">
-        <v>434</v>
+        <v>343</v>
+      </c>
+      <c r="S98" t="n">
+        <v>285</v>
+      </c>
+      <c r="T98" t="s">
+        <v>212</v>
+      </c>
+      <c r="U98" t="n">
+        <v>315</v>
       </c>
       <c r="Y98" t="n">
         <v>922</v>
       </c>
-      <c r="Z98" s="38" t="s">
-        <v>201</v>
+      <c r="Z98" s="37" t="s">
+        <v>210</v>
       </c>
       <c r="AA98" t="n">
         <v>952</v>
@@ -6325,64 +6269,73 @@
     </row>
     <row r="99" spans="1:29">
       <c r="A99" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C99" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="G99" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H99" t="s">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="I99" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J99" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="K99" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L99" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="M99" t="n">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="N99" t="s">
+        <v>270</v>
+      </c>
+      <c r="O99" t="n">
+        <v>226</v>
+      </c>
+      <c r="P99" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>256</v>
+      </c>
+      <c r="R99" t="s">
+        <v>349</v>
+      </c>
+      <c r="S99" t="n">
         <v>286</v>
       </c>
-      <c r="O99" t="n">
-        <v>234</v>
-      </c>
-      <c r="P99" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>264</v>
-      </c>
-      <c r="R99" t="s">
-        <v>405</v>
+      <c r="T99" t="s">
+        <v>224</v>
+      </c>
+      <c r="U99" t="n">
+        <v>316</v>
       </c>
       <c r="Y99" t="n">
         <v>923</v>
       </c>
-      <c r="Z99" s="38" t="s">
-        <v>312</v>
+      <c r="Z99" s="37" t="s">
+        <v>345</v>
       </c>
       <c r="AA99" t="n">
         <v>953</v>
@@ -6393,70 +6346,79 @@
     </row>
     <row r="100" spans="1:29">
       <c r="A100" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C100" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E100" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G100" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H100" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="I100" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J100" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="K100" t="n">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L100" t="s">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="M100" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="N100" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="O100" t="n">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>387</v>
       </c>
       <c r="Q100" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="R100" t="s">
-        <v>406</v>
+        <v>268</v>
+      </c>
+      <c r="S100" t="n">
+        <v>287</v>
+      </c>
+      <c r="T100" t="s">
+        <v>237</v>
+      </c>
+      <c r="U100" t="n">
+        <v>317</v>
       </c>
       <c r="Y100" t="n">
         <v>924</v>
       </c>
-      <c r="Z100" s="38" t="s">
-        <v>319</v>
+      <c r="Z100" s="37" t="s">
+        <v>353</v>
       </c>
       <c r="AA100" t="n">
         <v>954</v>
       </c>
       <c r="AB100" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="AC100" t="n">
         <v>984</v>
@@ -6464,70 +6426,79 @@
     </row>
     <row r="101" spans="1:29">
       <c r="A101" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="C101" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E101" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G101" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H101" t="s">
-        <v>48</v>
+        <v>342</v>
       </c>
       <c r="I101" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J101" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="K101" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L101" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="M101" t="n">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N101" t="s">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="O101" t="n">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>383</v>
       </c>
       <c r="Q101" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="R101" t="s">
-        <v>73</v>
+        <v>280</v>
+      </c>
+      <c r="S101" t="n">
+        <v>288</v>
+      </c>
+      <c r="T101" t="s">
+        <v>250</v>
+      </c>
+      <c r="U101" t="n">
+        <v>318</v>
       </c>
       <c r="Y101" t="n">
         <v>925</v>
       </c>
-      <c r="Z101" s="38" t="s">
-        <v>325</v>
+      <c r="Z101" s="37" t="s">
+        <v>360</v>
       </c>
       <c r="AA101" t="n">
         <v>955</v>
       </c>
       <c r="AB101" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="AC101" t="n">
         <v>985</v>
@@ -6535,70 +6506,79 @@
     </row>
     <row r="102" spans="1:29">
       <c r="A102" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="C102" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="E102" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F102" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G102" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H102" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I102" t="n">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J102" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="K102" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L102" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="M102" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="N102" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="O102" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q102" t="n">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="R102" t="s">
-        <v>343</v>
+        <v>391</v>
+      </c>
+      <c r="S102" t="n">
+        <v>289</v>
+      </c>
+      <c r="T102" t="s">
+        <v>262</v>
+      </c>
+      <c r="U102" t="n">
+        <v>319</v>
       </c>
       <c r="Y102" t="n">
         <v>926</v>
       </c>
-      <c r="Z102" s="39" t="s">
-        <v>258</v>
+      <c r="Z102" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="AA102" t="n">
         <v>956</v>
       </c>
       <c r="AB102" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="AC102" t="n">
         <v>986</v>
@@ -6606,64 +6586,73 @@
     </row>
     <row r="103" spans="1:29">
       <c r="A103" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C103" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="E103" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F103" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="G103" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="I103" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J103" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="K103" t="n">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L103" t="s">
-        <v>202</v>
+        <v>323</v>
       </c>
       <c r="M103" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="N103" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="O103" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="Q103" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="R103" t="s">
-        <v>346</v>
+        <v>392</v>
+      </c>
+      <c r="S103" t="n">
+        <v>290</v>
+      </c>
+      <c r="T103" t="s">
+        <v>274</v>
+      </c>
+      <c r="U103" t="n">
+        <v>320</v>
       </c>
       <c r="Y103" t="n">
         <v>927</v>
       </c>
-      <c r="Z103" s="39" t="s">
-        <v>267</v>
+      <c r="Z103" s="38" t="s">
+        <v>288</v>
       </c>
       <c r="AA103" t="n">
         <v>957</v>
@@ -6674,64 +6663,73 @@
     </row>
     <row r="104" spans="1:30">
       <c r="A104" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C104" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E104" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="G104" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H104" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="I104" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J104" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="K104" t="n">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L104" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="M104" t="n">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="N104" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="O104" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P104" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="Q104" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="R104" t="s">
-        <v>348</v>
+        <v>463</v>
+      </c>
+      <c r="S104" t="n">
+        <v>291</v>
+      </c>
+      <c r="T104" t="s">
+        <v>286</v>
+      </c>
+      <c r="U104" t="n">
+        <v>321</v>
       </c>
       <c r="Y104" t="n">
         <v>928</v>
       </c>
-      <c r="Z104" s="39" t="s">
-        <v>277</v>
+      <c r="Z104" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="AA104" t="n">
         <v>958</v>
@@ -6740,82 +6738,609 @@
         <v>988</v>
       </c>
       <c r="AD104" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:29">
       <c r="A105" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C105" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E105" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F105" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="G105" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="I105" t="n">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J105" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="K105" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L105" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="M105" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="N105" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="O105" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P105" t="s">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="Q105" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="R105" t="s">
-        <v>352</v>
+        <v>465</v>
+      </c>
+      <c r="S105" t="n">
+        <v>292</v>
+      </c>
+      <c r="T105" t="s">
+        <v>297</v>
+      </c>
+      <c r="U105" t="n">
+        <v>322</v>
       </c>
       <c r="Y105" t="n">
         <v>929</v>
       </c>
-      <c r="Z105" s="39" t="s">
-        <v>285</v>
+      <c r="Z105" s="38" t="s">
+        <v>311</v>
       </c>
       <c r="AA105" t="n">
         <v>959</v>
       </c>
       <c r="AC105" t="n">
         <v>989</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106" t="n">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" t="n">
+        <v>53</v>
+      </c>
+      <c r="D106" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" t="n">
+        <v>83</v>
+      </c>
+      <c r="F106" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" t="n">
+        <v>113</v>
+      </c>
+      <c r="H106" t="s">
+        <v>264</v>
+      </c>
+      <c r="I106" t="n">
+        <v>143</v>
+      </c>
+      <c r="J106" t="s">
+        <v>154</v>
+      </c>
+      <c r="K106" t="n">
+        <v>173</v>
+      </c>
+      <c r="L106" t="s">
+        <v>359</v>
+      </c>
+      <c r="M106" t="n">
+        <v>203</v>
+      </c>
+      <c r="N106" t="s">
+        <v>301</v>
+      </c>
+      <c r="O106" t="n">
+        <v>233</v>
+      </c>
+      <c r="P106" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>263</v>
+      </c>
+      <c r="R106" t="s">
+        <v>466</v>
+      </c>
+      <c r="S106" t="n">
+        <v>293</v>
+      </c>
+      <c r="T106" t="s">
+        <v>307</v>
+      </c>
+      <c r="U106" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107" t="n">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="n">
+        <v>54</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" t="n">
+        <v>84</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="n">
+        <v>114</v>
+      </c>
+      <c r="H107" t="s">
+        <v>277</v>
+      </c>
+      <c r="I107" t="n">
+        <v>144</v>
+      </c>
+      <c r="J107" t="s">
+        <v>166</v>
+      </c>
+      <c r="K107" t="n">
+        <v>174</v>
+      </c>
+      <c r="L107" t="s">
+        <v>365</v>
+      </c>
+      <c r="M107" t="n">
+        <v>204</v>
+      </c>
+      <c r="N107" t="s">
+        <v>312</v>
+      </c>
+      <c r="O107" t="n">
+        <v>234</v>
+      </c>
+      <c r="P107" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>264</v>
+      </c>
+      <c r="R107" t="s">
+        <v>441</v>
+      </c>
+      <c r="S107" t="n">
+        <v>294</v>
+      </c>
+      <c r="T107" t="s">
+        <v>317</v>
+      </c>
+      <c r="U107" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
+      <c r="A108" t="n">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" t="n">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" t="n">
+        <v>85</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108" t="n">
+        <v>115</v>
+      </c>
+      <c r="H108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" t="n">
+        <v>145</v>
+      </c>
+      <c r="J108" t="s">
+        <v>173</v>
+      </c>
+      <c r="K108" t="n">
+        <v>175</v>
+      </c>
+      <c r="L108" t="s">
+        <v>169</v>
+      </c>
+      <c r="M108" t="n">
+        <v>205</v>
+      </c>
+      <c r="N108" t="s">
+        <v>322</v>
+      </c>
+      <c r="O108" t="n">
+        <v>235</v>
+      </c>
+      <c r="P108" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>265</v>
+      </c>
+      <c r="R108" t="s">
+        <v>442</v>
+      </c>
+      <c r="S108" t="n">
+        <v>295</v>
+      </c>
+      <c r="T108" t="s">
+        <v>328</v>
+      </c>
+      <c r="U108" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="A109" t="n">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" t="n">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" t="n">
+        <v>86</v>
+      </c>
+      <c r="F109" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" t="n">
+        <v>116</v>
+      </c>
+      <c r="H109" t="s">
+        <v>48</v>
+      </c>
+      <c r="I109" t="n">
+        <v>146</v>
+      </c>
+      <c r="J109" t="s">
+        <v>178</v>
+      </c>
+      <c r="K109" t="n">
+        <v>176</v>
+      </c>
+      <c r="L109" t="s">
+        <v>181</v>
+      </c>
+      <c r="M109" t="n">
+        <v>206</v>
+      </c>
+      <c r="N109" t="s">
+        <v>350</v>
+      </c>
+      <c r="O109" t="n">
+        <v>236</v>
+      </c>
+      <c r="P109" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>266</v>
+      </c>
+      <c r="R109" t="s">
+        <v>73</v>
+      </c>
+      <c r="S109" t="n">
+        <v>296</v>
+      </c>
+      <c r="T109" t="s">
+        <v>245</v>
+      </c>
+      <c r="U109" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110" t="n">
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" t="n">
+        <v>57</v>
+      </c>
+      <c r="D110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" t="n">
+        <v>87</v>
+      </c>
+      <c r="F110" t="s">
+        <v>152</v>
+      </c>
+      <c r="G110" t="n">
+        <v>117</v>
+      </c>
+      <c r="H110" t="s">
+        <v>118</v>
+      </c>
+      <c r="I110" t="n">
+        <v>147</v>
+      </c>
+      <c r="J110" t="s">
+        <v>192</v>
+      </c>
+      <c r="K110" t="n">
+        <v>177</v>
+      </c>
+      <c r="L110" t="s">
+        <v>196</v>
+      </c>
+      <c r="M110" t="n">
+        <v>207</v>
+      </c>
+      <c r="N110" t="s">
+        <v>356</v>
+      </c>
+      <c r="O110" t="n">
+        <v>237</v>
+      </c>
+      <c r="P110" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>267</v>
+      </c>
+      <c r="R110" t="s">
+        <v>379</v>
+      </c>
+      <c r="S110" t="n">
+        <v>297</v>
+      </c>
+      <c r="T110" t="s">
+        <v>257</v>
+      </c>
+      <c r="U110" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111" t="n">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" t="n">
+        <v>58</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" t="n">
+        <v>88</v>
+      </c>
+      <c r="F111" t="s">
+        <v>71</v>
+      </c>
+      <c r="G111" t="n">
+        <v>118</v>
+      </c>
+      <c r="H111" t="s">
+        <v>135</v>
+      </c>
+      <c r="I111" t="n">
+        <v>148</v>
+      </c>
+      <c r="J111" t="s">
+        <v>207</v>
+      </c>
+      <c r="K111" t="n">
+        <v>178</v>
+      </c>
+      <c r="L111" t="s">
+        <v>211</v>
+      </c>
+      <c r="M111" t="n">
+        <v>208</v>
+      </c>
+      <c r="N111" t="s">
+        <v>333</v>
+      </c>
+      <c r="O111" t="n">
+        <v>238</v>
+      </c>
+      <c r="P111" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>268</v>
+      </c>
+      <c r="R111" t="s">
+        <v>382</v>
+      </c>
+      <c r="S111" t="n">
+        <v>298</v>
+      </c>
+      <c r="T111" t="s">
+        <v>269</v>
+      </c>
+      <c r="U111" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112" t="n">
+        <v>29</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="n">
+        <v>59</v>
+      </c>
+      <c r="D112" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" t="n">
+        <v>89</v>
+      </c>
+      <c r="F112" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" t="n">
+        <v>119</v>
+      </c>
+      <c r="H112" t="s">
+        <v>149</v>
+      </c>
+      <c r="I112" t="n">
+        <v>149</v>
+      </c>
+      <c r="J112" t="s">
+        <v>67</v>
+      </c>
+      <c r="K112" t="n">
+        <v>179</v>
+      </c>
+      <c r="L112" t="s">
+        <v>75</v>
+      </c>
+      <c r="M112" t="n">
+        <v>209</v>
+      </c>
+      <c r="N112" t="s">
+        <v>341</v>
+      </c>
+      <c r="O112" t="n">
+        <v>239</v>
+      </c>
+      <c r="P112" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>269</v>
+      </c>
+      <c r="R112" t="s">
+        <v>384</v>
+      </c>
+      <c r="S112" t="n">
+        <v>299</v>
+      </c>
+      <c r="T112" t="s">
+        <v>281</v>
+      </c>
+      <c r="U112" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
+      <c r="A113" t="n">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" t="n">
+        <v>60</v>
+      </c>
+      <c r="D113" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" t="n">
+        <v>90</v>
+      </c>
+      <c r="F113" t="s">
+        <v>215</v>
+      </c>
+      <c r="G113" t="n">
+        <v>120</v>
+      </c>
+      <c r="H113" t="s">
+        <v>142</v>
+      </c>
+      <c r="I113" t="n">
+        <v>150</v>
+      </c>
+      <c r="J113" t="s">
+        <v>86</v>
+      </c>
+      <c r="K113" t="n">
+        <v>180</v>
+      </c>
+      <c r="L113" t="s">
+        <v>93</v>
+      </c>
+      <c r="M113" t="n">
+        <v>210</v>
+      </c>
+      <c r="N113" t="s">
+        <v>221</v>
+      </c>
+      <c r="O113" t="n">
+        <v>240</v>
+      </c>
+      <c r="P113" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>270</v>
+      </c>
+      <c r="R113" t="s">
+        <v>388</v>
+      </c>
+      <c r="S113" t="n">
+        <v>300</v>
+      </c>
+      <c r="T113"/>
+      <c r="U113" t="n">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1675369094" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1730945708" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6824,17 +7349,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1675369094" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1675369094" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1675369094" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1675369094" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1730945708" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1730945708" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1730945708" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1730945708" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1675369094" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1730945708" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
